--- a/sg02/Assets/Resources/Config/Excel/Kings.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Kings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,26 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Period01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄巾之乱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +173,10 @@
   </si>
   <si>
     <t>彻里吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +597,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,65 +610,65 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -692,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -715,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -738,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -761,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -784,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -807,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -830,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -853,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -876,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -899,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -922,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -945,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -968,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -991,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1014,7 +998,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1037,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1060,7 +1044,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1083,7 +1067,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1106,7 +1090,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1129,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1152,7 +1136,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1175,7 +1159,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1198,7 +1182,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1221,7 +1205,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1244,7 +1228,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1267,7 +1251,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1290,7 +1274,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1313,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1336,7 +1320,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>1</v>

--- a/sg02/Assets/Resources/Config/Excel/Kings.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Kings.xlsx
@@ -176,7 +176,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Period[]</t>
+    <t>Times[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +597,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/sg02/Assets/Resources/Config/Excel/Kings.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Kings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,97 @@
   <si>
     <t>Times[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlagAnim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗帜动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAG05</t>
+  </si>
+  <si>
+    <t>FLAG01</t>
+  </si>
+  <si>
+    <t>FLAG17</t>
+  </si>
+  <si>
+    <t>FLAG17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAG07</t>
+  </si>
+  <si>
+    <t>FLAG04</t>
+  </si>
+  <si>
+    <t>FLAG11</t>
+  </si>
+  <si>
+    <t>FLAG12</t>
+  </si>
+  <si>
+    <t>FLAG14</t>
+  </si>
+  <si>
+    <t>FLAG21</t>
+  </si>
+  <si>
+    <t>FLAG02</t>
+  </si>
+  <si>
+    <t>FLAG24</t>
+  </si>
+  <si>
+    <t>FLAG03</t>
+  </si>
+  <si>
+    <t>FLAG09</t>
+  </si>
+  <si>
+    <t>FLAG22</t>
+  </si>
+  <si>
+    <t>FLAG18</t>
+  </si>
+  <si>
+    <t>FLAG26</t>
+  </si>
+  <si>
+    <t>FLAG16</t>
+  </si>
+  <si>
+    <t>FLAG06</t>
+  </si>
+  <si>
+    <t>FLAG13</t>
+  </si>
+  <si>
+    <t>FLAG23</t>
+  </si>
+  <si>
+    <t>FLAG15</t>
+  </si>
+  <si>
+    <t>FLAG19</t>
+  </si>
+  <si>
+    <t>FLAG08</t>
+  </si>
+  <si>
+    <t>FLAG10</t>
+  </si>
+  <si>
+    <t>FLAG25</t>
   </si>
 </sst>
 </file>
@@ -594,15 +685,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>40</v>
@@ -624,8 +718,11 @@
       <c r="G1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -633,22 +730,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -656,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -670,19 +770,22 @@
       <c r="G3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -693,19 +796,22 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -716,22 +822,25 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>47</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -739,22 +848,25 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>46</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -762,22 +874,25 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>49</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -785,45 +900,51 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -831,19 +952,22 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -852,18 +976,21 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>53</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -872,50 +999,56 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" t="s">
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -923,62 +1056,71 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>56</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>57</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>58</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -987,21 +1129,24 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>59</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1013,21 +1158,24 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>60</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1038,19 +1186,22 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" t="s">
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1061,19 +1212,22 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1084,22 +1238,25 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" t="s">
+        <v>62</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1107,19 +1264,22 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>56</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1130,22 +1290,25 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>63</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1153,19 +1316,22 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1176,19 +1342,22 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="C26" t="s">
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1199,22 +1368,25 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>66</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1222,22 +1394,25 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" t="s">
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1245,22 +1420,25 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>67</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1268,22 +1446,25 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" t="s">
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1291,22 +1472,25 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="C31" t="s">
+        <v>68</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1314,27 +1498,33 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="C32" t="s">
+        <v>69</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>0</v>
       </c>
     </row>

--- a/sg02/Assets/Resources/Config/Excel/Kings.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/Kings.xlsx
@@ -192,83 +192,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FLAG05</t>
-  </si>
-  <si>
-    <t>FLAG01</t>
-  </si>
-  <si>
-    <t>FLAG17</t>
-  </si>
-  <si>
-    <t>FLAG17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLAG07</t>
-  </si>
-  <si>
-    <t>FLAG04</t>
-  </si>
-  <si>
-    <t>FLAG11</t>
-  </si>
-  <si>
-    <t>FLAG12</t>
-  </si>
-  <si>
-    <t>FLAG14</t>
-  </si>
-  <si>
-    <t>FLAG21</t>
-  </si>
-  <si>
-    <t>FLAG02</t>
-  </si>
-  <si>
-    <t>FLAG24</t>
-  </si>
-  <si>
-    <t>FLAG03</t>
-  </si>
-  <si>
-    <t>FLAG09</t>
-  </si>
-  <si>
-    <t>FLAG22</t>
-  </si>
-  <si>
-    <t>FLAG18</t>
-  </si>
-  <si>
-    <t>FLAG26</t>
-  </si>
-  <si>
-    <t>FLAG16</t>
-  </si>
-  <si>
-    <t>FLAG06</t>
-  </si>
-  <si>
-    <t>FLAG13</t>
-  </si>
-  <si>
-    <t>FLAG23</t>
-  </si>
-  <si>
-    <t>FLAG15</t>
-  </si>
-  <si>
-    <t>FLAG19</t>
-  </si>
-  <si>
-    <t>FLAG08</t>
-  </si>
-  <si>
-    <t>FLAG10</t>
-  </si>
-  <si>
-    <t>FLAG25</t>
+    <t>Animations/TROOP/FLAG05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/TROOP/FLAG25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -693,7 +718,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -834,7 +859,7 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -860,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -886,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -912,7 +937,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -938,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -964,7 +989,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -990,7 +1015,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1016,7 +1041,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1042,7 +1067,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1068,7 +1093,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1094,7 +1119,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1120,7 +1145,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1146,7 +1171,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1172,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1198,7 +1223,7 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1224,7 +1249,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1250,7 +1275,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1276,7 +1301,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1302,7 +1327,7 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1328,7 +1353,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1354,7 +1379,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1380,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1406,7 +1431,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1458,7 +1483,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <v>0</v>
